--- a/Data/data_surfacewater/174344/WaterLevelsDiscreteForSiteCrossTab.xlsx
+++ b/Data/data_surfacewater/174344/WaterLevelsDiscreteForSiteCrossTab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00105010\Projects\Otorowiri\data\data_surfacewater\174344\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C400B7-F846-4691-BF77-A70604102CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B8CBF4-F9FC-455E-A26A-719BCF0E3755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WaterLevelsDiscreteForSiteCross" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="599">
   <si>
     <t/>
   </si>
@@ -497,9 +497,6 @@
     <t>1181217</t>
   </si>
   <si>
-    <t>~10.407</t>
-  </si>
-  <si>
     <t>15:45:01</t>
   </si>
   <si>
@@ -1098,9 +1095,6 @@
   </si>
   <si>
     <t>1181324</t>
-  </si>
-  <si>
-    <t>~11.2</t>
   </si>
   <si>
     <t>10:54:01</t>
@@ -2327,7 +2321,7 @@
   <dimension ref="A1:Z167"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2363,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -5041,8 +5035,8 @@
       <c r="Y34" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Z34" s="3" t="s">
-        <v>154</v>
+      <c r="Z34" s="3">
+        <v>10.407</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.35">
@@ -5057,7 +5051,7 @@
         <v>28696.656261574099</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E35" s="6">
         <v>28696</v>
@@ -5072,16 +5066,16 @@
         <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>30</v>
@@ -5136,7 +5130,7 @@
         <v>28709.594456018502</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E36" s="6">
         <v>28709</v>
@@ -5151,16 +5145,16 @@
         <v>0</v>
       </c>
       <c r="I36" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>30</v>
@@ -5197,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z36" s="7">
         <v>10.334</v>
@@ -5215,7 +5209,7 @@
         <v>28725.645844907402</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E37" s="6">
         <v>28725</v>
@@ -5230,16 +5224,16 @@
         <v>0</v>
       </c>
       <c r="I37" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>30</v>
@@ -5276,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z37" s="7">
         <v>10.266</v>
@@ -5294,7 +5288,7 @@
         <v>28754.468761574099</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E38" s="6">
         <v>28754</v>
@@ -5309,16 +5303,16 @@
         <v>0</v>
       </c>
       <c r="I38" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>30</v>
@@ -5355,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z38" s="7">
         <v>10.587</v>
@@ -5388,16 +5382,16 @@
         <v>0</v>
       </c>
       <c r="I39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>30</v>
@@ -5434,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z39" s="7">
         <v>10.156000000000001</v>
@@ -5452,7 +5446,7 @@
         <v>29066.5069560185</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E40" s="6">
         <v>29066</v>
@@ -5467,16 +5461,16 @@
         <v>0</v>
       </c>
       <c r="I40" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>30</v>
@@ -5513,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z40" s="7">
         <v>10.179</v>
@@ -5531,7 +5525,7 @@
         <v>29412.4479398148</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E41" s="6">
         <v>29412</v>
@@ -5546,16 +5540,16 @@
         <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>30</v>
@@ -5592,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z41" s="7">
         <v>10.206</v>
@@ -5610,7 +5604,7 @@
         <v>29412.447951388898</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E42" s="6">
         <v>29412</v>
@@ -5625,16 +5619,16 @@
         <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>30</v>
@@ -5671,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z42" s="7">
         <v>10.206</v>
@@ -5689,7 +5683,7 @@
         <v>29430.489594907402</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E43" s="6">
         <v>29430</v>
@@ -5704,16 +5698,16 @@
         <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>30</v>
@@ -5750,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z43" s="7">
         <v>10.494999999999999</v>
@@ -5768,7 +5762,7 @@
         <v>29466.510428240701</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E44" s="6">
         <v>29466</v>
@@ -5783,16 +5777,16 @@
         <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>30</v>
@@ -5829,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z44" s="7">
         <v>10.239000000000001</v>
@@ -5847,7 +5841,7 @@
         <v>29768.541678240701</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E45" s="6">
         <v>29768</v>
@@ -5862,16 +5856,16 @@
         <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>30</v>
@@ -5908,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z45" s="7">
         <v>10.467000000000001</v>
@@ -5941,16 +5935,16 @@
         <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L46" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>30</v>
@@ -5987,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z46" s="7">
         <v>10.467000000000001</v>
@@ -6020,16 +6014,16 @@
         <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>30</v>
@@ -6066,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z47" s="7">
         <v>10.395</v>
@@ -6084,7 +6078,7 @@
         <v>29783.496539351901</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E48" s="6">
         <v>29783</v>
@@ -6099,16 +6093,16 @@
         <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L48" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>30</v>
@@ -6145,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z48" s="7">
         <v>10.24</v>
@@ -6163,7 +6157,7 @@
         <v>29790.427094907402</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E49" s="6">
         <v>29790</v>
@@ -6178,16 +6172,16 @@
         <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>30</v>
@@ -6224,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z49" s="7">
         <v>11.272</v>
@@ -6242,7 +6236,7 @@
         <v>29802.434039351901</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E50" s="6">
         <v>29802</v>
@@ -6257,16 +6251,16 @@
         <v>0</v>
       </c>
       <c r="I50" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>30</v>
@@ -6303,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z50" s="7">
         <v>11.202999999999999</v>
@@ -6336,16 +6330,16 @@
         <v>0</v>
       </c>
       <c r="I51" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>30</v>
@@ -6382,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z51" s="7">
         <v>11.115</v>
@@ -6400,7 +6394,7 @@
         <v>29805.467372685202</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E52" s="6">
         <v>29805</v>
@@ -6415,16 +6409,16 @@
         <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>30</v>
@@ -6461,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z52" s="7">
         <v>10.648999999999999</v>
@@ -6479,7 +6473,7 @@
         <v>29811.430567129599</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E53" s="6">
         <v>29811</v>
@@ -6494,16 +6488,16 @@
         <v>0</v>
       </c>
       <c r="I53" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L53" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>30</v>
@@ -6540,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z53" s="7">
         <v>10.747</v>
@@ -6573,16 +6567,16 @@
         <v>0</v>
       </c>
       <c r="I54" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L54" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>30</v>
@@ -6619,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z54" s="7">
         <v>10.885999999999999</v>
@@ -6652,16 +6646,16 @@
         <v>0</v>
       </c>
       <c r="I55" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L55" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>30</v>
@@ -6698,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z55" s="7">
         <v>10.3</v>
@@ -6716,7 +6710,7 @@
         <v>29843.493078703701</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E56" s="6">
         <v>29843</v>
@@ -6731,16 +6725,16 @@
         <v>0</v>
       </c>
       <c r="I56" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L56" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>30</v>
@@ -6777,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z56" s="7">
         <v>10.228999999999999</v>
@@ -6795,7 +6789,7 @@
         <v>29843.4930902778</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E57" s="6">
         <v>29843</v>
@@ -6810,16 +6804,16 @@
         <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L57" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>30</v>
@@ -6856,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z57" s="7">
         <v>10.228999999999999</v>
@@ -6874,7 +6868,7 @@
         <v>29879.4132060185</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E58" s="6">
         <v>29879</v>
@@ -6889,16 +6883,16 @@
         <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>30</v>
@@ -6935,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Z58" s="7">
         <v>10.156000000000001</v>
@@ -6953,7 +6947,7 @@
         <v>30131.488206018501</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E59" s="6">
         <v>30131</v>
@@ -6968,16 +6962,16 @@
         <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L59" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>30</v>
@@ -7014,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="Y59" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z59" s="7">
         <v>10.166</v>
@@ -7032,7 +7026,7 @@
         <v>30131.488900462999</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E60" s="6">
         <v>30131</v>
@@ -7047,16 +7041,16 @@
         <v>0</v>
       </c>
       <c r="I60" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L60" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>30</v>
@@ -7093,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z60" s="7">
         <v>10.166</v>
@@ -7111,7 +7105,7 @@
         <v>30165.586817129599</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E61" s="6">
         <v>30165</v>
@@ -7126,16 +7120,16 @@
         <v>0</v>
       </c>
       <c r="I61" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L61" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>30</v>
@@ -7172,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z61" s="7">
         <v>10.195</v>
@@ -7190,7 +7184,7 @@
         <v>30165.5875115741</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E62" s="6">
         <v>30165</v>
@@ -7205,16 +7199,16 @@
         <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L62" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>30</v>
@@ -7251,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z62" s="7">
         <v>10.195</v>
@@ -7269,7 +7263,7 @@
         <v>30187.4132060185</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E63" s="6">
         <v>30187</v>
@@ -7284,16 +7278,16 @@
         <v>0</v>
       </c>
       <c r="I63" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L63" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>30</v>
@@ -7330,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z63" s="7">
         <v>10.499000000000001</v>
@@ -7348,7 +7342,7 @@
         <v>30187.413900463001</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E64" s="6">
         <v>30187</v>
@@ -7363,16 +7357,16 @@
         <v>0</v>
       </c>
       <c r="I64" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L64" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>30</v>
@@ -7409,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="Y64" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z64" s="7">
         <v>10.499000000000001</v>
@@ -7427,7 +7421,7 @@
         <v>30187.482650463</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E65" s="6">
         <v>30187</v>
@@ -7442,16 +7436,16 @@
         <v>0</v>
       </c>
       <c r="I65" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L65" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>30</v>
@@ -7488,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="Y65" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z65" s="7">
         <v>10.465999999999999</v>
@@ -7506,7 +7500,7 @@
         <v>30187.483344907399</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E66" s="6">
         <v>30187</v>
@@ -7521,16 +7515,16 @@
         <v>0</v>
       </c>
       <c r="I66" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L66" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>30</v>
@@ -7567,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z66" s="7">
         <v>10.465999999999999</v>
@@ -7585,7 +7579,7 @@
         <v>30187.581956018501</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E67" s="6">
         <v>30187</v>
@@ -7600,16 +7594,16 @@
         <v>0</v>
       </c>
       <c r="I67" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L67" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>30</v>
@@ -7646,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z67" s="7">
         <v>10.428000000000001</v>
@@ -7664,7 +7658,7 @@
         <v>30187.582650462999</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E68" s="6">
         <v>30187</v>
@@ -7679,16 +7673,16 @@
         <v>0</v>
       </c>
       <c r="I68" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L68" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>30</v>
@@ -7725,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z68" s="7">
         <v>10.428000000000001</v>
@@ -7743,7 +7737,7 @@
         <v>30188.406261574099</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E69" s="6">
         <v>30188</v>
@@ -7758,16 +7752,16 @@
         <v>0</v>
       </c>
       <c r="I69" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L69" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="M69" s="3" t="s">
         <v>30</v>
@@ -7804,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="Y69" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z69" s="7">
         <v>10.319000000000001</v>
@@ -7822,7 +7816,7 @@
         <v>30188.406956018502</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E70" s="6">
         <v>30188</v>
@@ -7837,16 +7831,16 @@
         <v>0</v>
       </c>
       <c r="I70" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>30</v>
@@ -7883,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="Y70" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z70" s="7">
         <v>10.319000000000001</v>
@@ -7901,7 +7895,7 @@
         <v>30188.5604282407</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E71" s="6">
         <v>30188</v>
@@ -7916,16 +7910,16 @@
         <v>0</v>
       </c>
       <c r="I71" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L71" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>30</v>
@@ -7962,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="Y71" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z71" s="7">
         <v>10.305</v>
@@ -7980,7 +7974,7 @@
         <v>30188.561122685202</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E72" s="6">
         <v>30188</v>
@@ -7995,16 +7989,16 @@
         <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L72" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>30</v>
@@ -8041,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="Y72" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z72" s="7">
         <v>10.305</v>
@@ -8059,7 +8053,7 @@
         <v>30189.397928240702</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E73" s="6">
         <v>30189</v>
@@ -8074,16 +8068,16 @@
         <v>0</v>
       </c>
       <c r="I73" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L73" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>30</v>
@@ -8120,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="Y73" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z73" s="7">
         <v>10.250999999999999</v>
@@ -8138,7 +8132,7 @@
         <v>30189.398622685199</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E74" s="6">
         <v>30189</v>
@@ -8153,16 +8147,16 @@
         <v>0</v>
       </c>
       <c r="I74" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L74" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="M74" s="3" t="s">
         <v>30</v>
@@ -8199,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="Y74" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z74" s="7">
         <v>10.250999999999999</v>
@@ -8217,7 +8211,7 @@
         <v>30214.429178240702</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E75" s="6">
         <v>30214</v>
@@ -8232,16 +8226,16 @@
         <v>0</v>
       </c>
       <c r="I75" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L75" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>30</v>
@@ -8278,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="Y75" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z75" s="7">
         <v>10.239000000000001</v>
@@ -8296,7 +8290,7 @@
         <v>30214.430567129599</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E76" s="6">
         <v>30214</v>
@@ -8311,16 +8305,16 @@
         <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L76" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>30</v>
@@ -8357,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="Y76" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z76" s="7">
         <v>10.239000000000001</v>
@@ -8375,7 +8369,7 @@
         <v>30238.625011574099</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E77" s="6">
         <v>30238</v>
@@ -8390,16 +8384,16 @@
         <v>0</v>
       </c>
       <c r="I77" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L77" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="M77" s="3" t="s">
         <v>30</v>
@@ -8436,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="Y77" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Z77" s="7">
         <v>10.298</v>
@@ -8454,7 +8448,7 @@
         <v>30238.626400462999</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E78" s="6">
         <v>30238</v>
@@ -8469,16 +8463,16 @@
         <v>0</v>
       </c>
       <c r="I78" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L78" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>30</v>
@@ -8515,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="Y78" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Z78" s="7">
         <v>10.298</v>
@@ -8533,7 +8527,7 @@
         <v>30489.613900462999</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E79" s="6">
         <v>30489</v>
@@ -8548,16 +8542,16 @@
         <v>0</v>
       </c>
       <c r="I79" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L79" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="M79" s="3" t="s">
         <v>30</v>
@@ -8594,7 +8588,7 @@
         <v>0</v>
       </c>
       <c r="Y79" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z79" s="7">
         <v>10.212</v>
@@ -8627,16 +8621,16 @@
         <v>0</v>
       </c>
       <c r="I80" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L80" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="M80" s="3" t="s">
         <v>30</v>
@@ -8673,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="Y80" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z80" s="7">
         <v>10.191000000000001</v>
@@ -8691,7 +8685,7 @@
         <v>30495.434733796301</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E81" s="6">
         <v>30495</v>
@@ -8706,16 +8700,16 @@
         <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L81" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>30</v>
@@ -8752,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="Y81" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z81" s="7">
         <v>10.331</v>
@@ -8785,16 +8779,16 @@
         <v>0</v>
       </c>
       <c r="I82" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L82" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>30</v>
@@ -8831,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="Y82" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z82" s="7">
         <v>11.172000000000001</v>
@@ -8849,7 +8843,7 @@
         <v>30496.570150463001</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E83" s="6">
         <v>30496</v>
@@ -8864,16 +8858,16 @@
         <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L83" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>30</v>
@@ -8910,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z83" s="7">
         <v>11.172000000000001</v>
@@ -8928,7 +8922,7 @@
         <v>30505.729178240701</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E84" s="6">
         <v>30505</v>
@@ -8943,16 +8937,16 @@
         <v>0</v>
       </c>
       <c r="I84" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L84" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="M84" s="3" t="s">
         <v>30</v>
@@ -8989,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="Y84" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z84" s="7">
         <v>11.31</v>
@@ -9007,7 +9001,7 @@
         <v>30518.508344907401</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E85" s="6">
         <v>30518</v>
@@ -9022,16 +9016,16 @@
         <v>0</v>
       </c>
       <c r="I85" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L85" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="M85" s="3" t="s">
         <v>30</v>
@@ -9068,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="Y85" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z85" s="7">
         <v>10.295999999999999</v>
@@ -9086,7 +9080,7 @@
         <v>30522.582650462999</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E86" s="6">
         <v>30522</v>
@@ -9101,16 +9095,16 @@
         <v>0</v>
       </c>
       <c r="I86" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L86" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="M86" s="3" t="s">
         <v>30</v>
@@ -9147,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="Y86" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z86" s="7">
         <v>11.584</v>
@@ -9180,16 +9174,16 @@
         <v>0</v>
       </c>
       <c r="I87" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L87" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="M87" s="3" t="s">
         <v>30</v>
@@ -9226,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="Y87" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z87" s="7">
         <v>11.584</v>
@@ -9244,7 +9238,7 @@
         <v>30523.572928240701</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E88" s="6">
         <v>30523</v>
@@ -9259,16 +9253,16 @@
         <v>0</v>
       </c>
       <c r="I88" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L88" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="M88" s="3" t="s">
         <v>30</v>
@@ -9305,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="Y88" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z88" s="7">
         <v>11.696</v>
@@ -9323,7 +9317,7 @@
         <v>30523.573622685199</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E89" s="6">
         <v>30523</v>
@@ -9338,16 +9332,16 @@
         <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L89" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>30</v>
@@ -9384,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="Y89" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z89" s="7">
         <v>11.696</v>
@@ -9417,16 +9411,16 @@
         <v>0</v>
       </c>
       <c r="I90" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L90" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="M90" s="3" t="s">
         <v>30</v>
@@ -9463,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="Y90" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z90" s="7">
         <v>10.34</v>
@@ -9481,7 +9475,7 @@
         <v>30549.041678240701</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E91" s="6">
         <v>30549</v>
@@ -9496,16 +9490,16 @@
         <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L91" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>30</v>
@@ -9542,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z91" s="7">
         <v>11.36</v>
@@ -9560,7 +9554,7 @@
         <v>30558.406261574099</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E92" s="6">
         <v>30558</v>
@@ -9575,16 +9569,16 @@
         <v>0</v>
       </c>
       <c r="I92" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L92" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>30</v>
@@ -9621,7 +9615,7 @@
         <v>0</v>
       </c>
       <c r="Y92" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z92" s="7">
         <v>10.77</v>
@@ -9639,7 +9633,7 @@
         <v>30558.408344907399</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E93" s="6">
         <v>30558</v>
@@ -9654,16 +9648,16 @@
         <v>0</v>
       </c>
       <c r="I93" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L93" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="M93" s="3" t="s">
         <v>30</v>
@@ -9700,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="Y93" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z93" s="7">
         <v>10.77</v>
@@ -9718,7 +9712,7 @@
         <v>30579.4666782407</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E94" s="6">
         <v>30579</v>
@@ -9733,16 +9727,16 @@
         <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L94" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>30</v>
@@ -9779,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Z94" s="7">
         <v>10.362</v>
@@ -9812,16 +9806,16 @@
         <v>0</v>
       </c>
       <c r="I95" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L95" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L95" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="M95" s="3" t="s">
         <v>30</v>
@@ -9858,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="Y95" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Z95" s="7">
         <v>10.132</v>
@@ -9876,7 +9870,7 @@
         <v>30810.395844907402</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E96" s="6">
         <v>30810</v>
@@ -9891,16 +9885,16 @@
         <v>0</v>
       </c>
       <c r="I96" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L96" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="M96" s="3" t="s">
         <v>30</v>
@@ -9937,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Z96" s="7">
         <v>11.039</v>
@@ -9955,7 +9949,7 @@
         <v>30810.396539351899</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E97" s="6">
         <v>30810</v>
@@ -9970,16 +9964,16 @@
         <v>0</v>
       </c>
       <c r="I97" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L97" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="M97" s="3" t="s">
         <v>30</v>
@@ -10016,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="Y97" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Z97" s="7">
         <v>11.039</v>
@@ -10034,7 +10028,7 @@
         <v>30839.555567129599</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E98" s="6">
         <v>30839</v>
@@ -10049,16 +10043,16 @@
         <v>0</v>
       </c>
       <c r="I98" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L98" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="M98" s="3" t="s">
         <v>30</v>
@@ -10095,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="Y98" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Z98" s="7">
         <v>10.414</v>
@@ -10113,7 +10107,7 @@
         <v>30839.556956018499</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E99" s="6">
         <v>30839</v>
@@ -10128,16 +10122,16 @@
         <v>0</v>
       </c>
       <c r="I99" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L99" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L99" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="M99" s="3" t="s">
         <v>30</v>
@@ -10174,10 +10168,10 @@
         <v>0</v>
       </c>
       <c r="Y99" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="Z99" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>11.2</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.35">
@@ -10192,7 +10186,7 @@
         <v>30874.4541782407</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E100" s="6">
         <v>30874</v>
@@ -10207,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>59</v>
@@ -10216,7 +10210,7 @@
         <v>56</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>30</v>
@@ -10253,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Z100" s="7">
         <v>10.326000000000001</v>
@@ -10271,7 +10265,7 @@
         <v>30902.4486111111</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E101" s="6">
         <v>30902</v>
@@ -10286,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>59</v>
@@ -10295,7 +10289,7 @@
         <v>56</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>30</v>
@@ -10332,7 +10326,7 @@
         <v>0</v>
       </c>
       <c r="Y101" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Z101" s="7">
         <v>10.519</v>
@@ -10350,7 +10344,7 @@
         <v>30910.444444444402</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E102" s="6">
         <v>30910</v>
@@ -10365,7 +10359,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>59</v>
@@ -10374,7 +10368,7 @@
         <v>56</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>30</v>
@@ -10411,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Z102" s="7">
         <v>10.547000000000001</v>
@@ -10444,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>59</v>
@@ -10453,7 +10447,7 @@
         <v>56</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="M103" s="3" t="s">
         <v>30</v>
@@ -10490,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="Y103" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Z103" s="7">
         <v>10.218</v>
@@ -10508,7 +10502,7 @@
         <v>30923.4625115741</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E104" s="6">
         <v>30923</v>
@@ -10523,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>59</v>
@@ -10532,7 +10526,7 @@
         <v>56</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M104" s="3" t="s">
         <v>30</v>
@@ -10569,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="Y104" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Z104" s="7">
         <v>10.218</v>
@@ -10587,7 +10581,7 @@
         <v>30940.397928240702</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E105" s="6">
         <v>30940</v>
@@ -10602,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>59</v>
@@ -10611,7 +10605,7 @@
         <v>56</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M105" s="3" t="s">
         <v>30</v>
@@ -10648,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="Y105" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Z105" s="7">
         <v>10.952999999999999</v>
@@ -10666,7 +10660,7 @@
         <v>31252.451400463</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E106" s="6">
         <v>31252</v>
@@ -10681,7 +10675,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>59</v>
@@ -10690,7 +10684,7 @@
         <v>56</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M106" s="3" t="s">
         <v>30</v>
@@ -10727,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="Y106" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="Z106" s="7">
         <v>10.172000000000001</v>
@@ -10745,7 +10739,7 @@
         <v>31272.595150462999</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E107" s="6">
         <v>31272</v>
@@ -10760,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J107" s="3" t="s">
         <v>59</v>
@@ -10769,7 +10763,7 @@
         <v>56</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M107" s="3" t="s">
         <v>30</v>
@@ -10806,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="Y107" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Z107" s="7">
         <v>10.185</v>
@@ -10824,7 +10818,7 @@
         <v>31293.5048726852</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E108" s="6">
         <v>31293</v>
@@ -10839,7 +10833,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>59</v>
@@ -10848,7 +10842,7 @@
         <v>56</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M108" s="3" t="s">
         <v>30</v>
@@ -10885,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="Y108" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Z108" s="7">
         <v>10.176</v>
@@ -10903,7 +10897,7 @@
         <v>31329.425706018501</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E109" s="6">
         <v>31329</v>
@@ -10918,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J109" s="3" t="s">
         <v>59</v>
@@ -10927,7 +10921,7 @@
         <v>56</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M109" s="3" t="s">
         <v>30</v>
@@ -10964,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="Y109" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Z109" s="7">
         <v>10.097</v>
@@ -10982,7 +10976,7 @@
         <v>31547.395833333299</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E110" s="6">
         <v>31547</v>
@@ -10997,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J110" s="3" t="s">
         <v>59</v>
@@ -11006,7 +11000,7 @@
         <v>56</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M110" s="3" t="s">
         <v>30</v>
@@ -11043,7 +11037,7 @@
         <v>0</v>
       </c>
       <c r="Y110" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Z110" s="7">
         <v>10.698</v>
@@ -11061,7 +11055,7 @@
         <v>31587.625011574099</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E111" s="6">
         <v>31587</v>
@@ -11076,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J111" s="3" t="s">
         <v>59</v>
@@ -11085,7 +11079,7 @@
         <v>56</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M111" s="3" t="s">
         <v>30</v>
@@ -11122,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="Y111" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Z111" s="7">
         <v>10.227</v>
@@ -11140,7 +11134,7 @@
         <v>31587.625706018502</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E112" s="6">
         <v>31587</v>
@@ -11155,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J112" s="3" t="s">
         <v>59</v>
@@ -11164,7 +11158,7 @@
         <v>56</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M112" s="3" t="s">
         <v>30</v>
@@ -11201,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="Y112" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Z112" s="7">
         <v>10.227</v>
@@ -11219,7 +11213,7 @@
         <v>31593.419456018499</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E113" s="6">
         <v>31593</v>
@@ -11234,7 +11228,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J113" s="3" t="s">
         <v>59</v>
@@ -11243,7 +11237,7 @@
         <v>56</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M113" s="3" t="s">
         <v>30</v>
@@ -11280,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="Y113" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Z113" s="7">
         <v>11.673</v>
@@ -11298,7 +11292,7 @@
         <v>31593.420150463</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E114" s="6">
         <v>31593</v>
@@ -11313,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J114" s="3" t="s">
         <v>59</v>
@@ -11322,7 +11316,7 @@
         <v>56</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M114" s="3" t="s">
         <v>30</v>
@@ -11359,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="Y114" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Z114" s="7">
         <v>11.673</v>
@@ -11392,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J115" s="3" t="s">
         <v>59</v>
@@ -11401,7 +11395,7 @@
         <v>56</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M115" s="3" t="s">
         <v>30</v>
@@ -11438,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="Y115" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Z115" s="7">
         <v>10.458</v>
@@ -11456,7 +11450,7 @@
         <v>31616.7257060185</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E116" s="6">
         <v>31616</v>
@@ -11471,7 +11465,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>59</v>
@@ -11480,7 +11474,7 @@
         <v>56</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M116" s="3" t="s">
         <v>30</v>
@@ -11517,7 +11511,7 @@
         <v>0</v>
       </c>
       <c r="Y116" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Z116" s="7">
         <v>11.920999999999999</v>
@@ -11535,7 +11529,7 @@
         <v>31616.726400463001</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E117" s="6">
         <v>31616</v>
@@ -11550,7 +11544,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J117" s="3" t="s">
         <v>59</v>
@@ -11559,7 +11553,7 @@
         <v>56</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M117" s="3" t="s">
         <v>30</v>
@@ -11596,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="Y117" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Z117" s="7">
         <v>11.920999999999999</v>
@@ -11614,7 +11608,7 @@
         <v>31617.4694675926</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E118" s="6">
         <v>31617</v>
@@ -11629,7 +11623,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J118" s="3" t="s">
         <v>59</v>
@@ -11638,7 +11632,7 @@
         <v>56</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M118" s="3" t="s">
         <v>30</v>
@@ -11675,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="Y118" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Z118" s="7">
         <v>11.657</v>
@@ -11693,7 +11687,7 @@
         <v>31617.469479166699</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E119" s="6">
         <v>31617</v>
@@ -11708,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J119" s="3" t="s">
         <v>59</v>
@@ -11717,7 +11711,7 @@
         <v>56</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M119" s="3" t="s">
         <v>30</v>
@@ -11754,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="Y119" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Z119" s="7">
         <v>11.657</v>
@@ -11772,7 +11766,7 @@
         <v>31617.511134259301</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E120" s="6">
         <v>31617</v>
@@ -11787,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J120" s="3" t="s">
         <v>59</v>
@@ -11796,7 +11790,7 @@
         <v>56</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M120" s="3" t="s">
         <v>30</v>
@@ -11833,7 +11827,7 @@
         <v>0</v>
       </c>
       <c r="Y120" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Z120" s="7">
         <v>11.625</v>
@@ -11851,7 +11845,7 @@
         <v>31617.511145833301</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E121" s="6">
         <v>31617</v>
@@ -11866,7 +11860,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J121" s="3" t="s">
         <v>59</v>
@@ -11875,7 +11869,7 @@
         <v>56</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M121" s="3" t="s">
         <v>30</v>
@@ -11912,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="Y121" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Z121" s="7">
         <v>11.625</v>
@@ -11930,7 +11924,7 @@
         <v>31617.599328703702</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E122" s="6">
         <v>31617</v>
@@ -11945,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J122" s="3" t="s">
         <v>59</v>
@@ -11954,7 +11948,7 @@
         <v>56</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M122" s="3" t="s">
         <v>30</v>
@@ -11991,7 +11985,7 @@
         <v>0</v>
       </c>
       <c r="Y122" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Z122" s="7">
         <v>11.552</v>
@@ -12009,7 +12003,7 @@
         <v>31617.5993402778</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E123" s="6">
         <v>31617</v>
@@ -12024,7 +12018,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>59</v>
@@ -12033,7 +12027,7 @@
         <v>56</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M123" s="3" t="s">
         <v>30</v>
@@ -12070,7 +12064,7 @@
         <v>0</v>
       </c>
       <c r="Y123" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Z123" s="7">
         <v>11.552</v>
@@ -12088,7 +12082,7 @@
         <v>31629.636134259301</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E124" s="6">
         <v>31629</v>
@@ -12103,7 +12097,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J124" s="3" t="s">
         <v>59</v>
@@ -12112,7 +12106,7 @@
         <v>56</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M124" s="3" t="s">
         <v>30</v>
@@ -12149,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="Y124" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Z124" s="7">
         <v>10.63</v>
@@ -12167,7 +12161,7 @@
         <v>31629.636145833301</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E125" s="6">
         <v>31629</v>
@@ -12182,7 +12176,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>59</v>
@@ -12191,7 +12185,7 @@
         <v>56</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M125" s="3" t="s">
         <v>30</v>
@@ -12228,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="Y125" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Z125" s="7">
         <v>10.63</v>
@@ -12246,7 +12240,7 @@
         <v>31637.523622685199</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E126" s="6">
         <v>31637</v>
@@ -12261,7 +12255,7 @@
         <v>0</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J126" s="3" t="s">
         <v>59</v>
@@ -12270,7 +12264,7 @@
         <v>56</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M126" s="3" t="s">
         <v>30</v>
@@ -12307,7 +12301,7 @@
         <v>0</v>
       </c>
       <c r="Y126" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Z126" s="7">
         <v>10.672000000000001</v>
@@ -12325,7 +12319,7 @@
         <v>31672.555567129599</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E127" s="6">
         <v>31672</v>
@@ -12340,7 +12334,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J127" s="3" t="s">
         <v>59</v>
@@ -12349,7 +12343,7 @@
         <v>56</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M127" s="3" t="s">
         <v>30</v>
@@ -12386,7 +12380,7 @@
         <v>0</v>
       </c>
       <c r="Y127" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="Z127" s="7">
         <v>10.369</v>
@@ -12419,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J128" s="3" t="s">
         <v>59</v>
@@ -12428,7 +12422,7 @@
         <v>56</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M128" s="3" t="s">
         <v>30</v>
@@ -12465,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="Y128" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Z128" s="7">
         <v>10.282999999999999</v>
@@ -12483,7 +12477,7 @@
         <v>31699.6097337963</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E129" s="6">
         <v>31699</v>
@@ -12498,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J129" s="3" t="s">
         <v>59</v>
@@ -12507,7 +12501,7 @@
         <v>56</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M129" s="3" t="s">
         <v>30</v>
@@ -12544,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="Y129" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Z129" s="7">
         <v>10.243</v>
@@ -12562,7 +12556,7 @@
         <v>31974.472928240699</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E130" s="6">
         <v>31974</v>
@@ -12577,7 +12571,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J130" s="3" t="s">
         <v>59</v>
@@ -12586,7 +12580,7 @@
         <v>56</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M130" s="3" t="s">
         <v>30</v>
@@ -12623,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="Y130" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Z130" s="7">
         <v>10.250999999999999</v>
@@ -12641,7 +12635,7 @@
         <v>31988.613900462999</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E131" s="6">
         <v>31988</v>
@@ -12656,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>59</v>
@@ -12665,7 +12659,7 @@
         <v>56</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M131" s="3" t="s">
         <v>30</v>
@@ -12702,7 +12696,7 @@
         <v>0</v>
       </c>
       <c r="Y131" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Z131" s="7">
         <v>10.54</v>
@@ -12720,7 +12714,7 @@
         <v>32296.395844907402</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E132" s="6">
         <v>32296</v>
@@ -12735,7 +12729,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>59</v>
@@ -12744,7 +12738,7 @@
         <v>56</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M132" s="3" t="s">
         <v>30</v>
@@ -12781,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="Y132" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Z132" s="7">
         <v>10.231</v>
@@ -12799,7 +12793,7 @@
         <v>32343.495150463001</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E133" s="6">
         <v>32343</v>
@@ -12814,7 +12808,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J133" s="3" t="s">
         <v>59</v>
@@ -12823,7 +12817,7 @@
         <v>56</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M133" s="3" t="s">
         <v>30</v>
@@ -12860,7 +12854,7 @@
         <v>0</v>
       </c>
       <c r="Y133" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Z133" s="7">
         <v>10.403</v>
@@ -12878,7 +12872,7 @@
         <v>32358.556956018499</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E134" s="6">
         <v>32358</v>
@@ -12893,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J134" s="3" t="s">
         <v>59</v>
@@ -12902,7 +12896,7 @@
         <v>56</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M134" s="3" t="s">
         <v>30</v>
@@ -12939,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="Y134" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Z134" s="7">
         <v>10.348000000000001</v>
@@ -12957,7 +12951,7 @@
         <v>32360.489594907402</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E135" s="6">
         <v>32360</v>
@@ -12972,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J135" s="3" t="s">
         <v>59</v>
@@ -12981,7 +12975,7 @@
         <v>56</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M135" s="3" t="s">
         <v>30</v>
@@ -13018,7 +13012,7 @@
         <v>0</v>
       </c>
       <c r="Y135" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Z135" s="7">
         <v>10.315</v>
@@ -13036,7 +13030,7 @@
         <v>32372.517372685201</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E136" s="6">
         <v>32372</v>
@@ -13051,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>59</v>
@@ -13060,7 +13054,7 @@
         <v>56</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M136" s="3" t="s">
         <v>30</v>
@@ -13097,7 +13091,7 @@
         <v>0</v>
       </c>
       <c r="Y136" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Z136" s="7">
         <v>10.736000000000001</v>
@@ -13115,7 +13109,7 @@
         <v>32372.5180671296</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E137" s="6">
         <v>32372</v>
@@ -13130,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J137" s="3" t="s">
         <v>59</v>
@@ -13139,7 +13133,7 @@
         <v>56</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M137" s="3" t="s">
         <v>30</v>
@@ -13176,7 +13170,7 @@
         <v>0</v>
       </c>
       <c r="Y137" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Z137" s="7">
         <v>10.736000000000001</v>
@@ -13194,7 +13188,7 @@
         <v>32666.497233796301</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E138" s="6">
         <v>32666</v>
@@ -13209,7 +13203,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J138" s="3" t="s">
         <v>59</v>
@@ -13218,7 +13212,7 @@
         <v>56</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M138" s="3" t="s">
         <v>30</v>
@@ -13249,13 +13243,13 @@
         <v>37</v>
       </c>
       <c r="W138" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="X138" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y138" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Z138" s="7">
         <v>10.105</v>
@@ -13273,7 +13267,7 @@
         <v>32700.548622685201</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E139" s="6">
         <v>32700</v>
@@ -13288,7 +13282,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J139" s="3" t="s">
         <v>59</v>
@@ -13297,7 +13291,7 @@
         <v>56</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M139" s="3" t="s">
         <v>30</v>
@@ -13334,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="Y139" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="Z139" s="7">
         <v>10.210000000000001</v>
@@ -13352,7 +13346,7 @@
         <v>32903.555567129602</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E140" s="6">
         <v>32903</v>
@@ -13367,7 +13361,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J140" s="3" t="s">
         <v>59</v>
@@ -13376,7 +13370,7 @@
         <v>56</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M140" s="3" t="s">
         <v>30</v>
@@ -13413,7 +13407,7 @@
         <v>0</v>
       </c>
       <c r="Y140" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="Z140" s="7">
         <v>11.249000000000001</v>
@@ -13431,7 +13425,7 @@
         <v>32903.5562615741</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E141" s="6">
         <v>32903</v>
@@ -13446,7 +13440,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J141" s="3" t="s">
         <v>59</v>
@@ -13455,7 +13449,7 @@
         <v>56</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M141" s="3" t="s">
         <v>30</v>
@@ -13492,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="Y141" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="Z141" s="7">
         <v>11.249000000000001</v>
@@ -13510,7 +13504,7 @@
         <v>33080.485428240703</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E142" s="6">
         <v>33080</v>
@@ -13525,7 +13519,7 @@
         <v>0</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J142" s="3" t="s">
         <v>59</v>
@@ -13534,7 +13528,7 @@
         <v>56</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M142" s="3" t="s">
         <v>30</v>
@@ -13571,7 +13565,7 @@
         <v>0</v>
       </c>
       <c r="Y142" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="Z142" s="7">
         <v>10.673</v>
@@ -13589,7 +13583,7 @@
         <v>34192.440289351798</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E143" s="6">
         <v>34192</v>
@@ -13604,7 +13598,7 @@
         <v>0</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J143" s="3" t="s">
         <v>59</v>
@@ -13613,7 +13607,7 @@
         <v>56</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M143" s="3" t="s">
         <v>30</v>
@@ -13644,13 +13638,13 @@
         <v>37</v>
       </c>
       <c r="W143" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="X143" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y143" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="Z143" s="7">
         <v>10.558</v>
@@ -13668,7 +13662,7 @@
         <v>34500.5604282407</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E144" s="6">
         <v>34500</v>
@@ -13683,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J144" s="3" t="s">
         <v>59</v>
@@ -13692,7 +13686,7 @@
         <v>56</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M144" s="3" t="s">
         <v>30</v>
@@ -13723,13 +13717,13 @@
         <v>37</v>
       </c>
       <c r="W144" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="X144" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y144" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Z144" s="7">
         <v>10.170999999999999</v>
@@ -13747,7 +13741,7 @@
         <v>34564.438900462999</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E145" s="6">
         <v>34564</v>
@@ -13762,7 +13756,7 @@
         <v>0</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J145" s="3" t="s">
         <v>59</v>
@@ -13771,7 +13765,7 @@
         <v>56</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M145" s="3" t="s">
         <v>30</v>
@@ -13802,13 +13796,13 @@
         <v>37</v>
       </c>
       <c r="W145" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="X145" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y145" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Z145" s="7">
         <v>10.343</v>
@@ -13826,7 +13820,7 @@
         <v>35270.633344907401</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E146" s="6">
         <v>35270</v>
@@ -13841,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J146" s="3" t="s">
         <v>59</v>
@@ -13850,7 +13844,7 @@
         <v>56</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M146" s="3" t="s">
         <v>30</v>
@@ -13881,13 +13875,13 @@
         <v>37</v>
       </c>
       <c r="W146" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="X146" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y146" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="Z146" s="7">
         <v>10.837</v>
@@ -13905,7 +13899,7 @@
         <v>35284.421539351897</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E147" s="6">
         <v>35284</v>
@@ -13920,7 +13914,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J147" s="3" t="s">
         <v>59</v>
@@ -13929,7 +13923,7 @@
         <v>56</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="M147" s="3" t="s">
         <v>30</v>
@@ -13960,13 +13954,13 @@
         <v>37</v>
       </c>
       <c r="W147" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="X147" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y147" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Z147" s="7">
         <v>11.262</v>
@@ -13984,7 +13978,7 @@
         <v>35285.541678240697</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E148" s="6">
         <v>35285</v>
@@ -13999,7 +13993,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J148" s="3" t="s">
         <v>59</v>
@@ -14008,7 +14002,7 @@
         <v>56</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M148" s="3" t="s">
         <v>30</v>
@@ -14039,13 +14033,13 @@
         <v>37</v>
       </c>
       <c r="W148" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="X148" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y148" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Z148" s="7">
         <v>11.15</v>
@@ -14063,7 +14057,7 @@
         <v>35290.486122685201</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E149" s="6">
         <v>35290</v>
@@ -14078,7 +14072,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J149" s="3" t="s">
         <v>59</v>
@@ -14087,7 +14081,7 @@
         <v>56</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M149" s="3" t="s">
         <v>30</v>
@@ -14118,13 +14112,13 @@
         <v>37</v>
       </c>
       <c r="W149" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="X149" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y149" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Z149" s="7">
         <v>11.211</v>
@@ -14142,7 +14136,7 @@
         <v>35291.430567129602</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E150" s="6">
         <v>35291</v>
@@ -14157,7 +14151,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J150" s="3" t="s">
         <v>59</v>
@@ -14166,7 +14160,7 @@
         <v>56</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M150" s="3" t="s">
         <v>30</v>
@@ -14197,13 +14191,13 @@
         <v>37</v>
       </c>
       <c r="W150" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="X150" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y150" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Z150" s="7">
         <v>11.56</v>
@@ -14221,7 +14215,7 @@
         <v>35291.597233796303</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E151" s="6">
         <v>35291</v>
@@ -14236,7 +14230,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J151" s="3" t="s">
         <v>59</v>
@@ -14245,7 +14239,7 @@
         <v>56</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M151" s="3" t="s">
         <v>30</v>
@@ -14276,13 +14270,13 @@
         <v>37</v>
       </c>
       <c r="W151" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="X151" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y151" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Z151" s="7">
         <v>11.601000000000001</v>
@@ -14315,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J152" s="3" t="s">
         <v>59</v>
@@ -14324,7 +14318,7 @@
         <v>56</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M152" s="3" t="s">
         <v>30</v>
@@ -14355,13 +14349,13 @@
         <v>37</v>
       </c>
       <c r="W152" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="X152" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y152" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Z152" s="7">
         <v>11.205</v>
@@ -14379,7 +14373,7 @@
         <v>35313.414594907401</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E153" s="6">
         <v>35313</v>
@@ -14394,7 +14388,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J153" s="3" t="s">
         <v>59</v>
@@ -14403,7 +14397,7 @@
         <v>56</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M153" s="3" t="s">
         <v>30</v>
@@ -14434,13 +14428,13 @@
         <v>37</v>
       </c>
       <c r="W153" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="X153" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y153" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="Z153" s="7">
         <v>10.452999999999999</v>
@@ -14458,7 +14452,7 @@
         <v>35382.517372685201</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E154" s="6">
         <v>35382</v>
@@ -14473,7 +14467,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J154" s="3" t="s">
         <v>59</v>
@@ -14482,7 +14476,7 @@
         <v>56</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M154" s="3" t="s">
         <v>30</v>
@@ -14513,13 +14507,13 @@
         <v>37</v>
       </c>
       <c r="W154" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="X154" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y154" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="Z154" s="7">
         <v>10.157999999999999</v>
@@ -14537,7 +14531,7 @@
         <v>35601.430567129602</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E155" s="6">
         <v>35601</v>
@@ -14552,7 +14546,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J155" s="3" t="s">
         <v>59</v>
@@ -14561,7 +14555,7 @@
         <v>56</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M155" s="3" t="s">
         <v>30</v>
@@ -14592,13 +14586,13 @@
         <v>37</v>
       </c>
       <c r="W155" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="X155" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y155" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="Z155" s="7">
         <v>10.218999999999999</v>
@@ -14616,7 +14610,7 @@
         <v>35656.478483796302</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E156" s="6">
         <v>35656</v>
@@ -14631,7 +14625,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J156" s="3" t="s">
         <v>59</v>
@@ -14640,7 +14634,7 @@
         <v>56</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M156" s="3" t="s">
         <v>30</v>
@@ -14671,13 +14665,13 @@
         <v>37</v>
       </c>
       <c r="W156" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="X156" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y156" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Z156" s="7">
         <v>10.461</v>
@@ -14695,7 +14689,7 @@
         <v>35704.470150462999</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E157" s="6">
         <v>35704</v>
@@ -14710,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J157" s="3" t="s">
         <v>59</v>
@@ -14719,7 +14713,7 @@
         <v>56</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M157" s="3" t="s">
         <v>30</v>
@@ -14750,13 +14744,13 @@
         <v>37</v>
       </c>
       <c r="W157" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="X157" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y157" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="Z157" s="7">
         <v>10.233000000000001</v>
@@ -14774,7 +14768,7 @@
         <v>35929.440983796303</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E158" s="6">
         <v>35929</v>
@@ -14789,7 +14783,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J158" s="3" t="s">
         <v>59</v>
@@ -14798,7 +14792,7 @@
         <v>56</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="M158" s="3" t="s">
         <v>30</v>
@@ -14829,13 +14823,13 @@
         <v>37</v>
       </c>
       <c r="W158" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X158" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y158" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="Z158" s="7">
         <v>10.282999999999999</v>
@@ -14853,7 +14847,7 @@
         <v>35942.427789351903</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E159" s="6">
         <v>35942</v>
@@ -14868,7 +14862,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J159" s="3" t="s">
         <v>59</v>
@@ -14877,7 +14871,7 @@
         <v>56</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M159" s="3" t="s">
         <v>30</v>
@@ -14908,13 +14902,13 @@
         <v>37</v>
       </c>
       <c r="W159" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="X159" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y159" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="Z159" s="7">
         <v>10.195</v>
@@ -14932,7 +14926,7 @@
         <v>35984.495844907397</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E160" s="6">
         <v>35984</v>
@@ -14947,7 +14941,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J160" s="3" t="s">
         <v>59</v>
@@ -14956,7 +14950,7 @@
         <v>56</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M160" s="3" t="s">
         <v>30</v>
@@ -14987,13 +14981,13 @@
         <v>37</v>
       </c>
       <c r="W160" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X160" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y160" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="Z160" s="7">
         <v>11.182</v>
@@ -15011,7 +15005,7 @@
         <v>36054.422928240703</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E161" s="6">
         <v>36054</v>
@@ -15026,7 +15020,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J161" s="3" t="s">
         <v>59</v>
@@ -15035,7 +15029,7 @@
         <v>56</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M161" s="3" t="s">
         <v>30</v>
@@ -15066,13 +15060,13 @@
         <v>37</v>
       </c>
       <c r="W161" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="X161" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Y161" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Z161" s="7">
         <v>10.262</v>
@@ -15090,7 +15084,7 @@
         <v>36272.447928240697</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E162" s="6">
         <v>36272</v>
@@ -15105,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J162" s="3" t="s">
         <v>59</v>
@@ -15114,7 +15108,7 @@
         <v>56</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M162" s="3" t="s">
         <v>30</v>
@@ -15151,7 +15145,7 @@
         <v>0</v>
       </c>
       <c r="Y162" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="Z162" s="7">
         <v>10.087999999999999</v>
@@ -15169,7 +15163,7 @@
         <v>36310.423622685201</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E163" s="6">
         <v>36310</v>
@@ -15184,7 +15178,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J163" s="3" t="s">
         <v>59</v>
@@ -15193,7 +15187,7 @@
         <v>56</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M163" s="3" t="s">
         <v>30</v>
@@ -15230,7 +15224,7 @@
         <v>0</v>
       </c>
       <c r="Y163" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Z163" s="7">
         <v>11.269</v>
@@ -15248,7 +15242,7 @@
         <v>36340.541678240697</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E164" s="6">
         <v>36340</v>
@@ -15263,7 +15257,7 @@
         <v>0</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J164" s="3" t="s">
         <v>59</v>
@@ -15309,7 +15303,7 @@
         <v>0</v>
       </c>
       <c r="Y164" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="Z164" s="7">
         <v>11.714</v>
@@ -15327,7 +15321,7 @@
         <v>36370.53125</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E165" s="6">
         <v>36370</v>
@@ -15342,7 +15336,7 @@
         <v>0</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J165" s="3" t="s">
         <v>59</v>
@@ -15351,7 +15345,7 @@
         <v>56</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M165" s="3" t="s">
         <v>30</v>
@@ -15388,7 +15382,7 @@
         <v>0</v>
       </c>
       <c r="Y165" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="Z165" s="7">
         <v>11.319000000000001</v>
@@ -15406,7 +15400,7 @@
         <v>36377.604166666701</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E166" s="6">
         <v>36377</v>
@@ -15421,7 +15415,7 @@
         <v>0</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J166" s="3" t="s">
         <v>59</v>
@@ -15430,7 +15424,7 @@
         <v>56</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M166" s="3" t="s">
         <v>30</v>
@@ -15467,7 +15461,7 @@
         <v>0</v>
       </c>
       <c r="Y166" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="Z166" s="7">
         <v>10.6</v>
@@ -15485,7 +15479,7 @@
         <v>36720.5180555556</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E167" s="6">
         <v>36720</v>
@@ -15500,7 +15494,7 @@
         <v>0</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J167" s="3" t="s">
         <v>59</v>
@@ -15546,7 +15540,7 @@
         <v>0</v>
       </c>
       <c r="Y167" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="Z167" s="7">
         <v>10.457000000000001</v>
